--- a/CreateML Models/CO2 Mitigation.xlsx
+++ b/CreateML Models/CO2 Mitigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skhiearth/Desktop/SolarX/CreateML Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB0466B-41A9-BA45-9E39-2E400FE5D090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565AE980-1FDE-8A42-AB29-722FA18531A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18220" windowHeight="16260" xr2:uid="{5BC59F8A-A70D-FB4E-8581-B9F15738DFB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18220" windowHeight="16260" xr2:uid="{5BC59F8A-A70D-FB4E-8581-B9F15738DFB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total Roof Top Area (in Sq. m.)</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Lifetime CO2 Mitigation (mt)</t>
+  </si>
+  <si>
+    <t>Roof Area</t>
   </si>
 </sst>
 </file>
@@ -395,21 +398,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E51577D-795A-1443-BB9A-6DEBA71589C2}">
-  <dimension ref="A1:D291"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H287" sqref="H287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="2" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,13 +420,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -431,13 +437,17 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D2" s="3">
+        <f>(A2*B2)/100</f>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E2" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -445,13 +455,17 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1266.52</v>
-      </c>
-      <c r="D3" s="3">
+        <f t="shared" ref="C3:C66" si="0">(A3*B3)/100</f>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1266.52</v>
+      </c>
+      <c r="E3" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -459,13 +473,17 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1046.26</v>
-      </c>
-      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1046.26</v>
+      </c>
+      <c r="E4" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -473,13 +491,17 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E5" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -487,13 +509,17 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>1266.52</v>
-      </c>
-      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1266.52</v>
+      </c>
+      <c r="E6" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -501,13 +527,17 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1046.26</v>
-      </c>
-      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1046.26</v>
+      </c>
+      <c r="E7" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -515,13 +545,17 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E8" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -529,13 +563,17 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>1266.52</v>
-      </c>
-      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1266.52</v>
+      </c>
+      <c r="E9" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -543,13 +581,17 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>1046.26</v>
-      </c>
-      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1046.26</v>
+      </c>
+      <c r="E10" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -557,13 +599,17 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E11" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -571,13 +617,17 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>1266.52</v>
-      </c>
-      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>1266.52</v>
+      </c>
+      <c r="E12" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100</v>
       </c>
@@ -585,13 +635,17 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E13" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -599,13 +653,17 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>1266.52</v>
-      </c>
-      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>1266.52</v>
+      </c>
+      <c r="E14" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>100</v>
       </c>
@@ -613,13 +671,17 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>1046.26</v>
-      </c>
-      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>1046.26</v>
+      </c>
+      <c r="E15" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -627,13 +689,17 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E16" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
@@ -641,13 +707,17 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>1266.52</v>
-      </c>
-      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>1266.52</v>
+      </c>
+      <c r="E17" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>100</v>
       </c>
@@ -655,13 +725,17 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>1046.26</v>
-      </c>
-      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>1046.26</v>
+      </c>
+      <c r="E18" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -669,13 +743,17 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E19" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -683,13 +761,17 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1266.52</v>
-      </c>
-      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>1266.52</v>
+      </c>
+      <c r="E20" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -697,13 +779,17 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>1046.26</v>
-      </c>
-      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>1046.26</v>
+      </c>
+      <c r="E21" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -711,13 +797,17 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E22" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -725,13 +815,17 @@
         <v>50</v>
       </c>
       <c r="C23">
-        <v>1266.52</v>
-      </c>
-      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>1266.52</v>
+      </c>
+      <c r="E23" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -739,13 +833,17 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>1046.26</v>
-      </c>
-      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>1046.26</v>
+      </c>
+      <c r="E24" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>100</v>
       </c>
@@ -753,13 +851,17 @@
         <v>60</v>
       </c>
       <c r="C25">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E25" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>100</v>
       </c>
@@ -767,13 +869,17 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>1266.52</v>
-      </c>
-      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>1266.52</v>
+      </c>
+      <c r="E26" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>100</v>
       </c>
@@ -781,13 +887,17 @@
         <v>60</v>
       </c>
       <c r="C27">
-        <v>1046.26</v>
-      </c>
-      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>1046.26</v>
+      </c>
+      <c r="E27" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -795,13 +905,17 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E28" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>100</v>
       </c>
@@ -809,13 +923,17 @@
         <v>70</v>
       </c>
       <c r="C29">
-        <v>1266.52</v>
-      </c>
-      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>1266.52</v>
+      </c>
+      <c r="E29" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>100</v>
       </c>
@@ -823,13 +941,17 @@
         <v>70</v>
       </c>
       <c r="C30">
-        <v>1046.26</v>
-      </c>
-      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>1046.26</v>
+      </c>
+      <c r="E30" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>100</v>
       </c>
@@ -837,13 +959,17 @@
         <v>90</v>
       </c>
       <c r="C31">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E31" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>100</v>
       </c>
@@ -851,13 +977,17 @@
         <v>90</v>
       </c>
       <c r="C32">
-        <v>1266.52</v>
-      </c>
-      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <v>1266.52</v>
+      </c>
+      <c r="E32" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>100</v>
       </c>
@@ -865,13 +995,17 @@
         <v>90</v>
       </c>
       <c r="C33">
-        <v>1046.26</v>
-      </c>
-      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>1046.26</v>
+      </c>
+      <c r="E33" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>80</v>
       </c>
@@ -879,13 +1013,17 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E34" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>80</v>
       </c>
@@ -893,13 +1031,17 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>1266.52</v>
-      </c>
-      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>1266.52</v>
+      </c>
+      <c r="E35" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>80</v>
       </c>
@@ -907,13 +1049,17 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>1046.26</v>
-      </c>
-      <c r="D36" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>1046.26</v>
+      </c>
+      <c r="E36" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>80</v>
       </c>
@@ -921,13 +1067,17 @@
         <v>30</v>
       </c>
       <c r="C37">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E37" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>80</v>
       </c>
@@ -935,13 +1085,17 @@
         <v>30</v>
       </c>
       <c r="C38">
-        <v>1266.52</v>
-      </c>
-      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>1266.52</v>
+      </c>
+      <c r="E38" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>80</v>
       </c>
@@ -949,13 +1103,17 @@
         <v>30</v>
       </c>
       <c r="C39">
-        <v>1046.26</v>
-      </c>
-      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>1046.26</v>
+      </c>
+      <c r="E39" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>80</v>
       </c>
@@ -963,13 +1121,17 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E40" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>80</v>
       </c>
@@ -977,13 +1139,17 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>1266.52</v>
-      </c>
-      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>1266.52</v>
+      </c>
+      <c r="E41" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>80</v>
       </c>
@@ -991,13 +1157,17 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1046.26</v>
-      </c>
-      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>1046.26</v>
+      </c>
+      <c r="E42" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>80</v>
       </c>
@@ -1005,13 +1175,17 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E43" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>80</v>
       </c>
@@ -1019,13 +1193,17 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>1266.52</v>
-      </c>
-      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>1266.52</v>
+      </c>
+      <c r="E44" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>80</v>
       </c>
@@ -1033,13 +1211,17 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>1046.26</v>
-      </c>
-      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>1046.26</v>
+      </c>
+      <c r="E45" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>80</v>
       </c>
@@ -1047,13 +1229,17 @@
         <v>60</v>
       </c>
       <c r="C46">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D46">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E46" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>80</v>
       </c>
@@ -1061,13 +1247,17 @@
         <v>60</v>
       </c>
       <c r="C47">
-        <v>1266.52</v>
-      </c>
-      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>1266.52</v>
+      </c>
+      <c r="E47" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>80</v>
       </c>
@@ -1075,13 +1265,17 @@
         <v>60</v>
       </c>
       <c r="C48">
-        <v>1046.26</v>
-      </c>
-      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>1046.26</v>
+      </c>
+      <c r="E48" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>80</v>
       </c>
@@ -1089,13 +1283,17 @@
         <v>70</v>
       </c>
       <c r="C49">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E49" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>80</v>
       </c>
@@ -1103,13 +1301,17 @@
         <v>70</v>
       </c>
       <c r="C50">
-        <v>1266.52</v>
-      </c>
-      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>1266.52</v>
+      </c>
+      <c r="E50" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>80</v>
       </c>
@@ -1117,13 +1319,17 @@
         <v>70</v>
       </c>
       <c r="C51">
-        <v>1046.26</v>
-      </c>
-      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>1046.26</v>
+      </c>
+      <c r="E51" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>80</v>
       </c>
@@ -1131,13 +1337,17 @@
         <v>80</v>
       </c>
       <c r="C52">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E52" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>80</v>
       </c>
@@ -1145,13 +1355,17 @@
         <v>80</v>
       </c>
       <c r="C53">
-        <v>1266.52</v>
-      </c>
-      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D53">
+        <v>1266.52</v>
+      </c>
+      <c r="E53" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>80</v>
       </c>
@@ -1159,13 +1373,17 @@
         <v>80</v>
       </c>
       <c r="C54">
-        <v>1046.26</v>
-      </c>
-      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>1046.26</v>
+      </c>
+      <c r="E54" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>80</v>
       </c>
@@ -1173,13 +1391,17 @@
         <v>90</v>
       </c>
       <c r="C55">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D55">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E55" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>80</v>
       </c>
@@ -1187,13 +1409,17 @@
         <v>90</v>
       </c>
       <c r="C56">
-        <v>1266.52</v>
-      </c>
-      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D56">
+        <v>1266.52</v>
+      </c>
+      <c r="E56" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>80</v>
       </c>
@@ -1201,13 +1427,17 @@
         <v>90</v>
       </c>
       <c r="C57">
-        <v>1046.26</v>
-      </c>
-      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D57">
+        <v>1046.26</v>
+      </c>
+      <c r="E57" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>80</v>
       </c>
@@ -1215,13 +1445,17 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D58">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E58" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>80</v>
       </c>
@@ -1229,13 +1463,17 @@
         <v>45</v>
       </c>
       <c r="C59">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D59">
+        <v>1266.52</v>
+      </c>
+      <c r="E59">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>80</v>
       </c>
@@ -1243,13 +1481,17 @@
         <v>45</v>
       </c>
       <c r="C60">
-        <v>1046.26</v>
-      </c>
-      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <v>1046.26</v>
+      </c>
+      <c r="E60" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>80</v>
       </c>
@@ -1257,13 +1499,17 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E61" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>80</v>
       </c>
@@ -1271,13 +1517,17 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>1266.52</v>
-      </c>
-      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <v>1266.52</v>
+      </c>
+      <c r="E62" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>80</v>
       </c>
@@ -1285,13 +1535,17 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>1046.26</v>
-      </c>
-      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>1046.26</v>
+      </c>
+      <c r="E63" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>80</v>
       </c>
@@ -1299,13 +1553,17 @@
         <v>75</v>
       </c>
       <c r="C64">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E64" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>80</v>
       </c>
@@ -1313,13 +1571,17 @@
         <v>75</v>
       </c>
       <c r="C65">
-        <v>1266.52</v>
-      </c>
-      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <v>1266.52</v>
+      </c>
+      <c r="E65" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>80</v>
       </c>
@@ -1327,13 +1589,17 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>1046.26</v>
-      </c>
-      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D66">
+        <v>1046.26</v>
+      </c>
+      <c r="E66" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>80</v>
       </c>
@@ -1341,13 +1607,17 @@
         <v>95</v>
       </c>
       <c r="C67">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D67" s="3">
+        <f t="shared" ref="C67:C130" si="1">(A67*B67)/100</f>
+        <v>76</v>
+      </c>
+      <c r="D67">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E67" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>80</v>
       </c>
@@ -1355,13 +1625,17 @@
         <v>95</v>
       </c>
       <c r="C68">
-        <v>1266.52</v>
-      </c>
-      <c r="D68" s="3">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D68">
+        <v>1266.52</v>
+      </c>
+      <c r="E68" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>80</v>
       </c>
@@ -1369,13 +1643,17 @@
         <v>95</v>
       </c>
       <c r="C69">
-        <v>1046.26</v>
-      </c>
-      <c r="D69" s="3">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D69">
+        <v>1046.26</v>
+      </c>
+      <c r="E69" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>90</v>
       </c>
@@ -1383,13 +1661,17 @@
         <v>15</v>
       </c>
       <c r="C70">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D70" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="D70">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E70" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>90</v>
       </c>
@@ -1397,13 +1679,17 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>1266.52</v>
-      </c>
-      <c r="D71" s="3">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="D71">
+        <v>1266.52</v>
+      </c>
+      <c r="E71" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>90</v>
       </c>
@@ -1411,13 +1697,17 @@
         <v>15</v>
       </c>
       <c r="C72">
-        <v>1046.26</v>
-      </c>
-      <c r="D72" s="3">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="D72">
+        <v>1046.26</v>
+      </c>
+      <c r="E72" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>90</v>
       </c>
@@ -1425,13 +1715,17 @@
         <v>20</v>
       </c>
       <c r="C73">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D73" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E73" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>90</v>
       </c>
@@ -1439,13 +1733,17 @@
         <v>20</v>
       </c>
       <c r="C74">
-        <v>1266.52</v>
-      </c>
-      <c r="D74" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <v>1266.52</v>
+      </c>
+      <c r="E74" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>90</v>
       </c>
@@ -1453,13 +1751,17 @@
         <v>20</v>
       </c>
       <c r="C75">
-        <v>1046.26</v>
-      </c>
-      <c r="D75" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>1046.26</v>
+      </c>
+      <c r="E75" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>90</v>
       </c>
@@ -1467,13 +1769,17 @@
         <v>25</v>
       </c>
       <c r="C76">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D76" s="3">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="D76">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E76" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>90</v>
       </c>
@@ -1481,13 +1787,17 @@
         <v>25</v>
       </c>
       <c r="C77">
-        <v>1266.52</v>
-      </c>
-      <c r="D77" s="3">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="D77">
+        <v>1266.52</v>
+      </c>
+      <c r="E77" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>90</v>
       </c>
@@ -1495,13 +1805,17 @@
         <v>25</v>
       </c>
       <c r="C78">
-        <v>1046.26</v>
-      </c>
-      <c r="D78" s="3">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="D78">
+        <v>1046.26</v>
+      </c>
+      <c r="E78" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>90</v>
       </c>
@@ -1509,13 +1823,17 @@
         <v>30</v>
       </c>
       <c r="C79">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D79" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D79">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E79" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>90</v>
       </c>
@@ -1523,13 +1841,17 @@
         <v>30</v>
       </c>
       <c r="C80">
-        <v>1266.52</v>
-      </c>
-      <c r="D80" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D80">
+        <v>1266.52</v>
+      </c>
+      <c r="E80" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>90</v>
       </c>
@@ -1537,13 +1859,17 @@
         <v>30</v>
       </c>
       <c r="C81">
-        <v>1046.26</v>
-      </c>
-      <c r="D81" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>1046.26</v>
+      </c>
+      <c r="E81" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>90</v>
       </c>
@@ -1551,13 +1877,17 @@
         <v>35</v>
       </c>
       <c r="C82">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D82" s="3">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="D82">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E82" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>90</v>
       </c>
@@ -1565,13 +1895,17 @@
         <v>35</v>
       </c>
       <c r="C83">
-        <v>1266.52</v>
-      </c>
-      <c r="D83" s="3">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="D83">
+        <v>1266.52</v>
+      </c>
+      <c r="E83" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>90</v>
       </c>
@@ -1579,13 +1913,17 @@
         <v>35</v>
       </c>
       <c r="C84">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>31.5</v>
       </c>
       <c r="D84">
+        <v>1046.26</v>
+      </c>
+      <c r="E84">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>90</v>
       </c>
@@ -1593,13 +1931,17 @@
         <v>40</v>
       </c>
       <c r="C85">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D85" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D85">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E85" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>90</v>
       </c>
@@ -1607,13 +1949,17 @@
         <v>40</v>
       </c>
       <c r="C86">
-        <v>1266.52</v>
-      </c>
-      <c r="D86" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D86">
+        <v>1266.52</v>
+      </c>
+      <c r="E86" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>90</v>
       </c>
@@ -1621,13 +1967,17 @@
         <v>40</v>
       </c>
       <c r="C87">
-        <v>1046.26</v>
-      </c>
-      <c r="D87" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D87">
+        <v>1046.26</v>
+      </c>
+      <c r="E87" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>90</v>
       </c>
@@ -1635,13 +1985,17 @@
         <v>45</v>
       </c>
       <c r="C88">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D88" s="3">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
+      <c r="D88">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E88" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>90</v>
       </c>
@@ -1649,13 +2003,17 @@
         <v>45</v>
       </c>
       <c r="C89">
-        <v>1266.52</v>
-      </c>
-      <c r="D89" s="3">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
+      <c r="D89">
+        <v>1266.52</v>
+      </c>
+      <c r="E89" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1663,13 +2021,17 @@
         <v>45</v>
       </c>
       <c r="C90">
-        <v>1046.26</v>
-      </c>
-      <c r="D90" s="3">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
+      <c r="D90">
+        <v>1046.26</v>
+      </c>
+      <c r="E90" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1677,13 +2039,17 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D91" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D91">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E91" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1691,13 +2057,17 @@
         <v>50</v>
       </c>
       <c r="C92">
-        <v>1266.52</v>
-      </c>
-      <c r="D92" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D92">
+        <v>1266.52</v>
+      </c>
+      <c r="E92" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -1705,13 +2075,17 @@
         <v>50</v>
       </c>
       <c r="C93">
-        <v>1046.26</v>
-      </c>
-      <c r="D93" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D93">
+        <v>1046.26</v>
+      </c>
+      <c r="E93" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>90</v>
       </c>
@@ -1719,13 +2093,17 @@
         <v>55</v>
       </c>
       <c r="C94">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D94" s="3">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="D94">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E94" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>90</v>
       </c>
@@ -1733,13 +2111,17 @@
         <v>55</v>
       </c>
       <c r="C95">
-        <v>1266.52</v>
-      </c>
-      <c r="D95" s="3">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="D95">
+        <v>1266.52</v>
+      </c>
+      <c r="E95" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>90</v>
       </c>
@@ -1747,13 +2129,17 @@
         <v>55</v>
       </c>
       <c r="C96">
-        <v>1046.26</v>
-      </c>
-      <c r="D96" s="3">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="D96">
+        <v>1046.26</v>
+      </c>
+      <c r="E96" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>90</v>
       </c>
@@ -1761,13 +2147,17 @@
         <v>60</v>
       </c>
       <c r="C97">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D97" s="3">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D97">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E97" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>90</v>
       </c>
@@ -1775,13 +2165,17 @@
         <v>60</v>
       </c>
       <c r="C98">
-        <v>1266.52</v>
-      </c>
-      <c r="D98" s="3">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D98">
+        <v>1266.52</v>
+      </c>
+      <c r="E98" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>90</v>
       </c>
@@ -1789,13 +2183,17 @@
         <v>60</v>
       </c>
       <c r="C99">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="D99">
+        <v>1046.26</v>
+      </c>
+      <c r="E99">
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>90</v>
       </c>
@@ -1803,13 +2201,17 @@
         <v>65</v>
       </c>
       <c r="C100">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D100" s="3">
+        <f t="shared" si="1"/>
+        <v>58.5</v>
+      </c>
+      <c r="D100">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E100" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>90</v>
       </c>
@@ -1817,13 +2219,17 @@
         <v>65</v>
       </c>
       <c r="C101">
-        <v>1266.52</v>
-      </c>
-      <c r="D101" s="3">
+        <f t="shared" si="1"/>
+        <v>58.5</v>
+      </c>
+      <c r="D101">
+        <v>1266.52</v>
+      </c>
+      <c r="E101" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>90</v>
       </c>
@@ -1831,13 +2237,17 @@
         <v>65</v>
       </c>
       <c r="C102">
-        <v>1046.26</v>
-      </c>
-      <c r="D102" s="3">
+        <f t="shared" si="1"/>
+        <v>58.5</v>
+      </c>
+      <c r="D102">
+        <v>1046.26</v>
+      </c>
+      <c r="E102" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>90</v>
       </c>
@@ -1845,13 +2255,17 @@
         <v>70</v>
       </c>
       <c r="C103">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D103" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D103">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E103" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>90</v>
       </c>
@@ -1859,13 +2273,17 @@
         <v>70</v>
       </c>
       <c r="C104">
-        <v>1266.52</v>
-      </c>
-      <c r="D104" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D104">
+        <v>1266.52</v>
+      </c>
+      <c r="E104" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>90</v>
       </c>
@@ -1873,13 +2291,17 @@
         <v>70</v>
       </c>
       <c r="C105">
-        <v>1046.26</v>
-      </c>
-      <c r="D105" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D105">
+        <v>1046.26</v>
+      </c>
+      <c r="E105" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>90</v>
       </c>
@@ -1887,13 +2309,17 @@
         <v>75</v>
       </c>
       <c r="C106">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D106" s="3">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="D106">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E106" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>90</v>
       </c>
@@ -1901,13 +2327,17 @@
         <v>75</v>
       </c>
       <c r="C107">
-        <v>1266.52</v>
-      </c>
-      <c r="D107" s="3">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="D107">
+        <v>1266.52</v>
+      </c>
+      <c r="E107" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>90</v>
       </c>
@@ -1915,13 +2345,17 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>1046.26</v>
-      </c>
-      <c r="D108" s="3">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="D108">
+        <v>1046.26</v>
+      </c>
+      <c r="E108" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>90</v>
       </c>
@@ -1929,13 +2363,17 @@
         <v>80</v>
       </c>
       <c r="C109">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="D109">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E109">
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>90</v>
       </c>
@@ -1943,13 +2381,17 @@
         <v>80</v>
       </c>
       <c r="C110">
-        <v>1266.52</v>
-      </c>
-      <c r="D110" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D110">
+        <v>1266.52</v>
+      </c>
+      <c r="E110" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>90</v>
       </c>
@@ -1957,13 +2399,17 @@
         <v>80</v>
       </c>
       <c r="C111">
-        <v>1046.26</v>
-      </c>
-      <c r="D111" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D111">
+        <v>1046.26</v>
+      </c>
+      <c r="E111" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>90</v>
       </c>
@@ -1971,13 +2417,17 @@
         <v>85</v>
       </c>
       <c r="C112">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D112" s="3">
+        <f t="shared" si="1"/>
+        <v>76.5</v>
+      </c>
+      <c r="D112">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E112" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>90</v>
       </c>
@@ -1985,13 +2435,17 @@
         <v>85</v>
       </c>
       <c r="C113">
-        <v>1266.52</v>
-      </c>
-      <c r="D113" s="3">
+        <f t="shared" si="1"/>
+        <v>76.5</v>
+      </c>
+      <c r="D113">
+        <v>1266.52</v>
+      </c>
+      <c r="E113" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>90</v>
       </c>
@@ -1999,13 +2453,17 @@
         <v>85</v>
       </c>
       <c r="C114">
-        <v>1046.26</v>
-      </c>
-      <c r="D114" s="3">
+        <f t="shared" si="1"/>
+        <v>76.5</v>
+      </c>
+      <c r="D114">
+        <v>1046.26</v>
+      </c>
+      <c r="E114" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>90</v>
       </c>
@@ -2013,13 +2471,17 @@
         <v>90</v>
       </c>
       <c r="C115">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D115" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D115">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E115" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>90</v>
       </c>
@@ -2027,13 +2489,17 @@
         <v>90</v>
       </c>
       <c r="C116">
-        <v>1266.52</v>
-      </c>
-      <c r="D116" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D116">
+        <v>1266.52</v>
+      </c>
+      <c r="E116" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>90</v>
       </c>
@@ -2041,13 +2507,17 @@
         <v>90</v>
       </c>
       <c r="C117">
-        <v>1046.26</v>
-      </c>
-      <c r="D117" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D117">
+        <v>1046.26</v>
+      </c>
+      <c r="E117" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>90</v>
       </c>
@@ -2055,13 +2525,17 @@
         <v>95</v>
       </c>
       <c r="C118">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D118" s="3">
+        <f t="shared" si="1"/>
+        <v>85.5</v>
+      </c>
+      <c r="D118">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E118" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>90</v>
       </c>
@@ -2069,13 +2543,17 @@
         <v>95</v>
       </c>
       <c r="C119">
-        <v>1266.52</v>
-      </c>
-      <c r="D119" s="3">
+        <f t="shared" si="1"/>
+        <v>85.5</v>
+      </c>
+      <c r="D119">
+        <v>1266.52</v>
+      </c>
+      <c r="E119" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>90</v>
       </c>
@@ -2083,13 +2561,17 @@
         <v>95</v>
       </c>
       <c r="C120">
-        <v>1046.26</v>
-      </c>
-      <c r="D120" s="3">
+        <f t="shared" si="1"/>
+        <v>85.5</v>
+      </c>
+      <c r="D120">
+        <v>1046.26</v>
+      </c>
+      <c r="E120" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>95</v>
       </c>
@@ -2097,13 +2579,17 @@
         <v>20</v>
       </c>
       <c r="C121">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D121" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D121">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E121" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>95</v>
       </c>
@@ -2111,13 +2597,17 @@
         <v>20</v>
       </c>
       <c r="C122">
-        <v>1266.52</v>
-      </c>
-      <c r="D122" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D122">
+        <v>1266.52</v>
+      </c>
+      <c r="E122" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>95</v>
       </c>
@@ -2125,13 +2615,17 @@
         <v>20</v>
       </c>
       <c r="C123">
-        <v>1046.26</v>
-      </c>
-      <c r="D123" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>1046.26</v>
+      </c>
+      <c r="E123" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>95</v>
       </c>
@@ -2139,13 +2633,17 @@
         <v>30</v>
       </c>
       <c r="C124">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D124" s="3">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="D124">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E124" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>95</v>
       </c>
@@ -2153,13 +2651,17 @@
         <v>30</v>
       </c>
       <c r="C125">
-        <v>1266.52</v>
-      </c>
-      <c r="D125" s="3">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="D125">
+        <v>1266.52</v>
+      </c>
+      <c r="E125" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>95</v>
       </c>
@@ -2167,13 +2669,17 @@
         <v>30</v>
       </c>
       <c r="C126">
-        <v>1046.26</v>
-      </c>
-      <c r="D126" s="3">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="D126">
+        <v>1046.26</v>
+      </c>
+      <c r="E126" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>95</v>
       </c>
@@ -2181,13 +2687,17 @@
         <v>40</v>
       </c>
       <c r="C127">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D127" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D127">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E127" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>95</v>
       </c>
@@ -2195,13 +2705,17 @@
         <v>40</v>
       </c>
       <c r="C128">
-        <v>1266.52</v>
-      </c>
-      <c r="D128" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D128">
+        <v>1266.52</v>
+      </c>
+      <c r="E128" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>95</v>
       </c>
@@ -2209,13 +2723,17 @@
         <v>40</v>
       </c>
       <c r="C129">
-        <v>1046.26</v>
-      </c>
-      <c r="D129" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D129">
+        <v>1046.26</v>
+      </c>
+      <c r="E129" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>95</v>
       </c>
@@ -2223,13 +2741,17 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>1266.52</v>
-      </c>
-      <c r="D130" s="3">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="D130">
+        <v>1266.52</v>
+      </c>
+      <c r="E130" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>95</v>
       </c>
@@ -2237,13 +2759,17 @@
         <v>50</v>
       </c>
       <c r="C131">
-        <v>1046.26</v>
-      </c>
-      <c r="D131" s="3">
+        <f t="shared" ref="C131:C194" si="2">(A131*B131)/100</f>
+        <v>47.5</v>
+      </c>
+      <c r="D131">
+        <v>1046.26</v>
+      </c>
+      <c r="E131" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>95</v>
       </c>
@@ -2251,13 +2777,17 @@
         <v>60</v>
       </c>
       <c r="C132">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D132" s="3">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D132">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E132" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>95</v>
       </c>
@@ -2265,13 +2795,17 @@
         <v>60</v>
       </c>
       <c r="C133">
-        <v>1266.52</v>
-      </c>
-      <c r="D133" s="3">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D133">
+        <v>1266.52</v>
+      </c>
+      <c r="E133" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>95</v>
       </c>
@@ -2279,13 +2813,17 @@
         <v>60</v>
       </c>
       <c r="C134">
-        <v>1046.26</v>
-      </c>
-      <c r="D134" s="3">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D134">
+        <v>1046.26</v>
+      </c>
+      <c r="E134" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>95</v>
       </c>
@@ -2293,13 +2831,17 @@
         <v>70</v>
       </c>
       <c r="C135">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D135" s="3">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="D135">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E135" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>95</v>
       </c>
@@ -2307,13 +2849,17 @@
         <v>70</v>
       </c>
       <c r="C136">
-        <v>1266.52</v>
-      </c>
-      <c r="D136" s="3">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="D136">
+        <v>1266.52</v>
+      </c>
+      <c r="E136" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>95</v>
       </c>
@@ -2321,13 +2867,17 @@
         <v>70</v>
       </c>
       <c r="C137">
-        <v>1046.26</v>
-      </c>
-      <c r="D137" s="3">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="D137">
+        <v>1046.26</v>
+      </c>
+      <c r="E137" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>50</v>
       </c>
@@ -2335,13 +2885,17 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D138" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E138" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>50</v>
       </c>
@@ -2349,13 +2903,17 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>1266.52</v>
-      </c>
-      <c r="D139" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>1266.52</v>
+      </c>
+      <c r="E139" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>50</v>
       </c>
@@ -2363,13 +2921,17 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>1046.26</v>
-      </c>
-      <c r="D140" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>1046.26</v>
+      </c>
+      <c r="E140" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>50</v>
       </c>
@@ -2377,13 +2939,17 @@
         <v>20</v>
       </c>
       <c r="C141">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D141" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E141" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>50</v>
       </c>
@@ -2391,13 +2957,17 @@
         <v>20</v>
       </c>
       <c r="C142">
-        <v>1266.52</v>
-      </c>
-      <c r="D142" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>1266.52</v>
+      </c>
+      <c r="E142" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>50</v>
       </c>
@@ -2405,13 +2975,17 @@
         <v>20</v>
       </c>
       <c r="C143">
-        <v>1046.26</v>
-      </c>
-      <c r="D143" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>1046.26</v>
+      </c>
+      <c r="E143" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>50</v>
       </c>
@@ -2419,13 +2993,17 @@
         <v>30</v>
       </c>
       <c r="C144">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D144" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D144">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E144" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>50</v>
       </c>
@@ -2433,13 +3011,17 @@
         <v>30</v>
       </c>
       <c r="C145">
-        <v>1266.52</v>
-      </c>
-      <c r="D145" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D145">
+        <v>1266.52</v>
+      </c>
+      <c r="E145" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>50</v>
       </c>
@@ -2447,13 +3029,17 @@
         <v>30</v>
       </c>
       <c r="C146">
-        <v>1046.26</v>
-      </c>
-      <c r="D146" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D146">
+        <v>1046.26</v>
+      </c>
+      <c r="E146" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>50</v>
       </c>
@@ -2461,13 +3047,17 @@
         <v>40</v>
       </c>
       <c r="C147">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D147" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D147">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E147" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>50</v>
       </c>
@@ -2475,13 +3065,17 @@
         <v>40</v>
       </c>
       <c r="C148">
-        <v>1266.52</v>
-      </c>
-      <c r="D148" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D148">
+        <v>1266.52</v>
+      </c>
+      <c r="E148" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>50</v>
       </c>
@@ -2489,13 +3083,17 @@
         <v>40</v>
       </c>
       <c r="C149">
-        <v>1046.26</v>
-      </c>
-      <c r="D149" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D149">
+        <v>1046.26</v>
+      </c>
+      <c r="E149" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>50</v>
       </c>
@@ -2503,13 +3101,17 @@
         <v>50</v>
       </c>
       <c r="C150">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D150" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D150">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E150" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>50</v>
       </c>
@@ -2517,13 +3119,17 @@
         <v>50</v>
       </c>
       <c r="C151">
-        <v>1266.52</v>
-      </c>
-      <c r="D151" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D151">
+        <v>1266.52</v>
+      </c>
+      <c r="E151" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>50</v>
       </c>
@@ -2531,13 +3137,17 @@
         <v>50</v>
       </c>
       <c r="C152">
-        <v>1046.26</v>
-      </c>
-      <c r="D152" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D152">
+        <v>1046.26</v>
+      </c>
+      <c r="E152" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>50</v>
       </c>
@@ -2545,13 +3155,17 @@
         <v>60</v>
       </c>
       <c r="C153">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D153" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D153">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E153" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>50</v>
       </c>
@@ -2559,13 +3173,17 @@
         <v>60</v>
       </c>
       <c r="C154">
-        <v>1266.52</v>
-      </c>
-      <c r="D154" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D154">
+        <v>1266.52</v>
+      </c>
+      <c r="E154" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>50</v>
       </c>
@@ -2573,13 +3191,17 @@
         <v>60</v>
       </c>
       <c r="C155">
-        <v>1046.26</v>
-      </c>
-      <c r="D155" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D155">
+        <v>1046.26</v>
+      </c>
+      <c r="E155" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>50</v>
       </c>
@@ -2587,13 +3209,17 @@
         <v>70</v>
       </c>
       <c r="C156">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D156" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D156">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E156" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>50</v>
       </c>
@@ -2601,13 +3227,17 @@
         <v>70</v>
       </c>
       <c r="C157">
-        <v>1266.52</v>
-      </c>
-      <c r="D157" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D157">
+        <v>1266.52</v>
+      </c>
+      <c r="E157" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>50</v>
       </c>
@@ -2615,13 +3245,17 @@
         <v>70</v>
       </c>
       <c r="C158">
-        <v>1046.26</v>
-      </c>
-      <c r="D158" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D158">
+        <v>1046.26</v>
+      </c>
+      <c r="E158" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>50</v>
       </c>
@@ -2629,13 +3263,17 @@
         <v>80</v>
       </c>
       <c r="C159">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D159" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D159">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E159" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>50</v>
       </c>
@@ -2643,13 +3281,17 @@
         <v>80</v>
       </c>
       <c r="C160">
-        <v>1266.52</v>
-      </c>
-      <c r="D160" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D160">
+        <v>1266.52</v>
+      </c>
+      <c r="E160" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>50</v>
       </c>
@@ -2657,13 +3299,17 @@
         <v>80</v>
       </c>
       <c r="C161">
-        <v>1046.26</v>
-      </c>
-      <c r="D161" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D161">
+        <v>1046.26</v>
+      </c>
+      <c r="E161" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>50</v>
       </c>
@@ -2671,13 +3317,17 @@
         <v>88</v>
       </c>
       <c r="C162">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D162" s="3">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D162">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E162" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>50</v>
       </c>
@@ -2685,13 +3335,17 @@
         <v>88</v>
       </c>
       <c r="C163">
-        <v>1266.52</v>
-      </c>
-      <c r="D163" s="3">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D163">
+        <v>1266.52</v>
+      </c>
+      <c r="E163" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>50</v>
       </c>
@@ -2699,13 +3353,17 @@
         <v>88</v>
       </c>
       <c r="C164">
-        <v>1046.26</v>
-      </c>
-      <c r="D164" s="3">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D164">
+        <v>1046.26</v>
+      </c>
+      <c r="E164" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>40</v>
       </c>
@@ -2713,13 +3371,17 @@
         <v>15</v>
       </c>
       <c r="C165">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D165" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E165" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>40</v>
       </c>
@@ -2727,13 +3389,17 @@
         <v>15</v>
       </c>
       <c r="C166">
-        <v>1266.52</v>
-      </c>
-      <c r="D166" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>1266.52</v>
+      </c>
+      <c r="E166" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>40</v>
       </c>
@@ -2741,13 +3407,17 @@
         <v>15</v>
       </c>
       <c r="C167">
-        <v>1046.26</v>
-      </c>
-      <c r="D167" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>1046.26</v>
+      </c>
+      <c r="E167" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>40</v>
       </c>
@@ -2755,13 +3425,17 @@
         <v>20</v>
       </c>
       <c r="C168">
-        <v>1266.52</v>
-      </c>
-      <c r="D168" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>1266.52</v>
+      </c>
+      <c r="E168" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>40</v>
       </c>
@@ -2769,13 +3443,17 @@
         <v>20</v>
       </c>
       <c r="C169">
-        <v>1046.26</v>
-      </c>
-      <c r="D169" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>1046.26</v>
+      </c>
+      <c r="E169" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>40</v>
       </c>
@@ -2783,13 +3461,17 @@
         <v>25</v>
       </c>
       <c r="C170">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D170" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E170" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>40</v>
       </c>
@@ -2797,13 +3479,17 @@
         <v>25</v>
       </c>
       <c r="C171">
-        <v>1266.52</v>
-      </c>
-      <c r="D171" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>1266.52</v>
+      </c>
+      <c r="E171" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>40</v>
       </c>
@@ -2811,13 +3497,17 @@
         <v>25</v>
       </c>
       <c r="C172">
-        <v>1046.26</v>
-      </c>
-      <c r="D172" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>1046.26</v>
+      </c>
+      <c r="E172" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>40</v>
       </c>
@@ -2825,13 +3515,17 @@
         <v>30</v>
       </c>
       <c r="C173">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D173" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E173" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>40</v>
       </c>
@@ -2839,13 +3533,17 @@
         <v>30</v>
       </c>
       <c r="C174">
-        <v>1046.26</v>
-      </c>
-      <c r="D174" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>1046.26</v>
+      </c>
+      <c r="E174" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>40</v>
       </c>
@@ -2853,13 +3551,17 @@
         <v>35</v>
       </c>
       <c r="C175">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D175" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D175">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E175" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>40</v>
       </c>
@@ -2867,13 +3569,17 @@
         <v>35</v>
       </c>
       <c r="C176">
-        <v>1266.52</v>
-      </c>
-      <c r="D176" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D176">
+        <v>1266.52</v>
+      </c>
+      <c r="E176" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>40</v>
       </c>
@@ -2881,13 +3587,17 @@
         <v>35</v>
       </c>
       <c r="C177">
-        <v>1046.26</v>
-      </c>
-      <c r="D177" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D177">
+        <v>1046.26</v>
+      </c>
+      <c r="E177" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>40</v>
       </c>
@@ -2895,13 +3605,17 @@
         <v>40</v>
       </c>
       <c r="C178">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D178" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D178">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E178" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>40</v>
       </c>
@@ -2909,13 +3623,17 @@
         <v>40</v>
       </c>
       <c r="C179">
-        <v>1266.52</v>
-      </c>
-      <c r="D179" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D179">
+        <v>1266.52</v>
+      </c>
+      <c r="E179" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>40</v>
       </c>
@@ -2923,13 +3641,17 @@
         <v>40</v>
       </c>
       <c r="C180">
-        <v>1046.26</v>
-      </c>
-      <c r="D180" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D180">
+        <v>1046.26</v>
+      </c>
+      <c r="E180" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>40</v>
       </c>
@@ -2937,13 +3659,17 @@
         <v>45</v>
       </c>
       <c r="C181">
-        <v>1266.52</v>
-      </c>
-      <c r="D181" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D181">
+        <v>1266.52</v>
+      </c>
+      <c r="E181" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>40</v>
       </c>
@@ -2951,13 +3677,17 @@
         <v>45</v>
       </c>
       <c r="C182">
-        <v>1046.26</v>
-      </c>
-      <c r="D182" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D182">
+        <v>1046.26</v>
+      </c>
+      <c r="E182" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>40</v>
       </c>
@@ -2965,13 +3695,17 @@
         <v>50</v>
       </c>
       <c r="C183">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D183" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D183">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E183" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>40</v>
       </c>
@@ -2979,13 +3713,17 @@
         <v>50</v>
       </c>
       <c r="C184">
-        <v>1266.52</v>
-      </c>
-      <c r="D184" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D184">
+        <v>1266.52</v>
+      </c>
+      <c r="E184" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>40</v>
       </c>
@@ -2993,13 +3731,17 @@
         <v>50</v>
       </c>
       <c r="C185">
-        <v>1046.26</v>
-      </c>
-      <c r="D185" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D185">
+        <v>1046.26</v>
+      </c>
+      <c r="E185" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>40</v>
       </c>
@@ -3007,13 +3749,17 @@
         <v>55</v>
       </c>
       <c r="C186">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D186" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D186">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E186" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>40</v>
       </c>
@@ -3021,13 +3767,17 @@
         <v>55</v>
       </c>
       <c r="C187">
-        <v>1266.52</v>
-      </c>
-      <c r="D187" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D187">
+        <v>1266.52</v>
+      </c>
+      <c r="E187" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>40</v>
       </c>
@@ -3035,13 +3785,17 @@
         <v>55</v>
       </c>
       <c r="C188">
-        <v>1046.26</v>
-      </c>
-      <c r="D188" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D188">
+        <v>1046.26</v>
+      </c>
+      <c r="E188" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>40</v>
       </c>
@@ -3049,13 +3803,17 @@
         <v>60</v>
       </c>
       <c r="C189">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D189" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D189">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E189" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>40</v>
       </c>
@@ -3063,13 +3821,17 @@
         <v>60</v>
       </c>
       <c r="C190">
-        <v>1266.52</v>
-      </c>
-      <c r="D190" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D190">
+        <v>1266.52</v>
+      </c>
+      <c r="E190" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>40</v>
       </c>
@@ -3077,13 +3839,17 @@
         <v>60</v>
       </c>
       <c r="C191">
-        <v>1046.26</v>
-      </c>
-      <c r="D191" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D191">
+        <v>1046.26</v>
+      </c>
+      <c r="E191" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>40</v>
       </c>
@@ -3091,13 +3857,17 @@
         <v>70</v>
       </c>
       <c r="C192">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D192" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D192">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E192" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>40</v>
       </c>
@@ -3105,13 +3875,17 @@
         <v>70</v>
       </c>
       <c r="C193">
-        <v>1266.52</v>
-      </c>
-      <c r="D193" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D193">
+        <v>1266.52</v>
+      </c>
+      <c r="E193" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>40</v>
       </c>
@@ -3119,13 +3893,17 @@
         <v>70</v>
       </c>
       <c r="C194">
-        <v>1046.26</v>
-      </c>
-      <c r="D194" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D194">
+        <v>1046.26</v>
+      </c>
+      <c r="E194" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>40</v>
       </c>
@@ -3133,13 +3911,17 @@
         <v>80</v>
       </c>
       <c r="C195">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D195" s="3">
+        <f t="shared" ref="C195:C258" si="3">(A195*B195)/100</f>
+        <v>32</v>
+      </c>
+      <c r="D195">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E195" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>40</v>
       </c>
@@ -3147,13 +3929,17 @@
         <v>80</v>
       </c>
       <c r="C196">
-        <v>1266.52</v>
-      </c>
-      <c r="D196" s="3">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D196">
+        <v>1266.52</v>
+      </c>
+      <c r="E196" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>40</v>
       </c>
@@ -3161,13 +3947,17 @@
         <v>80</v>
       </c>
       <c r="C197">
-        <v>1046.26</v>
-      </c>
-      <c r="D197" s="3">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D197">
+        <v>1046.26</v>
+      </c>
+      <c r="E197" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>40</v>
       </c>
@@ -3175,13 +3965,17 @@
         <v>85</v>
       </c>
       <c r="C198">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D198" s="3">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="D198">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E198" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>40</v>
       </c>
@@ -3189,13 +3983,17 @@
         <v>85</v>
       </c>
       <c r="C199">
-        <v>1266.52</v>
-      </c>
-      <c r="D199" s="3">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="D199">
+        <v>1266.52</v>
+      </c>
+      <c r="E199" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>40</v>
       </c>
@@ -3203,13 +4001,17 @@
         <v>85</v>
       </c>
       <c r="C200">
-        <v>1046.26</v>
-      </c>
-      <c r="D200" s="3">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="D200">
+        <v>1046.26</v>
+      </c>
+      <c r="E200" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>40</v>
       </c>
@@ -3217,13 +4019,17 @@
         <v>90</v>
       </c>
       <c r="C201">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D201" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="D201">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E201" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>40</v>
       </c>
@@ -3231,13 +4037,17 @@
         <v>90</v>
       </c>
       <c r="C202">
-        <v>1266.52</v>
-      </c>
-      <c r="D202" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="D202">
+        <v>1266.52</v>
+      </c>
+      <c r="E202" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>40</v>
       </c>
@@ -3245,13 +4055,17 @@
         <v>90</v>
       </c>
       <c r="C203">
-        <v>1046.26</v>
-      </c>
-      <c r="D203" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="D203">
+        <v>1046.26</v>
+      </c>
+      <c r="E203" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>60</v>
       </c>
@@ -3259,13 +4073,17 @@
         <v>33</v>
       </c>
       <c r="C204">
-        <v>1266.52</v>
-      </c>
-      <c r="D204" s="3">
+        <f t="shared" si="3"/>
+        <v>19.8</v>
+      </c>
+      <c r="D204">
+        <v>1266.52</v>
+      </c>
+      <c r="E204" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>60</v>
       </c>
@@ -3273,13 +4091,17 @@
         <v>33</v>
       </c>
       <c r="C205">
-        <v>1046.26</v>
-      </c>
-      <c r="D205" s="3">
+        <f t="shared" si="3"/>
+        <v>19.8</v>
+      </c>
+      <c r="D205">
+        <v>1046.26</v>
+      </c>
+      <c r="E205" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>60</v>
       </c>
@@ -3287,13 +4109,17 @@
         <v>48</v>
       </c>
       <c r="C206">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D206" s="3">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+      <c r="D206">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E206" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>60</v>
       </c>
@@ -3301,13 +4127,17 @@
         <v>48</v>
       </c>
       <c r="C207">
-        <v>1266.52</v>
-      </c>
-      <c r="D207" s="3">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+      <c r="D207">
+        <v>1266.52</v>
+      </c>
+      <c r="E207" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>60</v>
       </c>
@@ -3315,13 +4145,17 @@
         <v>48</v>
       </c>
       <c r="C208">
-        <v>1046.26</v>
-      </c>
-      <c r="D208" s="3">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+      <c r="D208">
+        <v>1046.26</v>
+      </c>
+      <c r="E208" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>60</v>
       </c>
@@ -3329,13 +4163,17 @@
         <v>64</v>
       </c>
       <c r="C209">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D209" s="3">
+        <f t="shared" si="3"/>
+        <v>38.4</v>
+      </c>
+      <c r="D209">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E209" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>60</v>
       </c>
@@ -3343,13 +4181,17 @@
         <v>64</v>
       </c>
       <c r="C210">
-        <v>1266.52</v>
-      </c>
-      <c r="D210" s="3">
+        <f t="shared" si="3"/>
+        <v>38.4</v>
+      </c>
+      <c r="D210">
+        <v>1266.52</v>
+      </c>
+      <c r="E210" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>60</v>
       </c>
@@ -3357,13 +4199,17 @@
         <v>64</v>
       </c>
       <c r="C211">
-        <v>1046.26</v>
-      </c>
-      <c r="D211" s="3">
+        <f t="shared" si="3"/>
+        <v>38.4</v>
+      </c>
+      <c r="D211">
+        <v>1046.26</v>
+      </c>
+      <c r="E211" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>60</v>
       </c>
@@ -3371,13 +4217,17 @@
         <v>76</v>
       </c>
       <c r="C212">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D212" s="3">
+        <f t="shared" si="3"/>
+        <v>45.6</v>
+      </c>
+      <c r="D212">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E212" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>60</v>
       </c>
@@ -3385,13 +4235,17 @@
         <v>76</v>
       </c>
       <c r="C213">
-        <v>1266.52</v>
-      </c>
-      <c r="D213" s="3">
+        <f t="shared" si="3"/>
+        <v>45.6</v>
+      </c>
+      <c r="D213">
+        <v>1266.52</v>
+      </c>
+      <c r="E213" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>60</v>
       </c>
@@ -3399,13 +4253,17 @@
         <v>76</v>
       </c>
       <c r="C214">
-        <v>1046.26</v>
-      </c>
-      <c r="D214" s="3">
+        <f t="shared" si="3"/>
+        <v>45.6</v>
+      </c>
+      <c r="D214">
+        <v>1046.26</v>
+      </c>
+      <c r="E214" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>72</v>
       </c>
@@ -3413,13 +4271,17 @@
         <v>56</v>
       </c>
       <c r="C215">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D215" s="3">
+        <f t="shared" si="3"/>
+        <v>40.32</v>
+      </c>
+      <c r="D215">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E215" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>72</v>
       </c>
@@ -3427,13 +4289,17 @@
         <v>56</v>
       </c>
       <c r="C216">
-        <v>1266.52</v>
-      </c>
-      <c r="D216" s="3">
+        <f t="shared" si="3"/>
+        <v>40.32</v>
+      </c>
+      <c r="D216">
+        <v>1266.52</v>
+      </c>
+      <c r="E216" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>72</v>
       </c>
@@ -3441,13 +4307,17 @@
         <v>56</v>
       </c>
       <c r="C217">
-        <v>1046.26</v>
-      </c>
-      <c r="D217" s="3">
+        <f t="shared" si="3"/>
+        <v>40.32</v>
+      </c>
+      <c r="D217">
+        <v>1046.26</v>
+      </c>
+      <c r="E217" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>37</v>
       </c>
@@ -3455,13 +4325,17 @@
         <v>49</v>
       </c>
       <c r="C218">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D218" s="3">
+        <f t="shared" si="3"/>
+        <v>18.13</v>
+      </c>
+      <c r="D218">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E218" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>37</v>
       </c>
@@ -3469,13 +4343,17 @@
         <v>49</v>
       </c>
       <c r="C219">
-        <v>1266.52</v>
-      </c>
-      <c r="D219" s="3">
+        <f t="shared" si="3"/>
+        <v>18.13</v>
+      </c>
+      <c r="D219">
+        <v>1266.52</v>
+      </c>
+      <c r="E219" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>37</v>
       </c>
@@ -3483,13 +4361,17 @@
         <v>49</v>
       </c>
       <c r="C220">
-        <v>1046.26</v>
-      </c>
-      <c r="D220" s="3">
+        <f t="shared" si="3"/>
+        <v>18.13</v>
+      </c>
+      <c r="D220">
+        <v>1046.26</v>
+      </c>
+      <c r="E220" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>37</v>
       </c>
@@ -3497,13 +4379,17 @@
         <v>39</v>
       </c>
       <c r="C221">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D221" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>14.43</v>
+      </c>
+      <c r="D221">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E221" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>37</v>
       </c>
@@ -3511,13 +4397,17 @@
         <v>39</v>
       </c>
       <c r="C222">
-        <v>1266.52</v>
-      </c>
-      <c r="D222" s="3">
+        <f t="shared" si="3"/>
+        <v>14.43</v>
+      </c>
+      <c r="D222">
+        <v>1266.52</v>
+      </c>
+      <c r="E222" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>37</v>
       </c>
@@ -3525,13 +4415,17 @@
         <v>39</v>
       </c>
       <c r="C223">
-        <v>1046.26</v>
-      </c>
-      <c r="D223" s="3">
+        <f t="shared" si="3"/>
+        <v>14.43</v>
+      </c>
+      <c r="D223">
+        <v>1046.26</v>
+      </c>
+      <c r="E223" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>37</v>
       </c>
@@ -3539,13 +4433,17 @@
         <v>26</v>
       </c>
       <c r="C224">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D224" s="3">
+        <f t="shared" si="3"/>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="D224">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E224" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>37</v>
       </c>
@@ -3553,13 +4451,17 @@
         <v>26</v>
       </c>
       <c r="C225">
-        <v>1266.52</v>
-      </c>
-      <c r="D225" s="3">
+        <f t="shared" si="3"/>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="D225">
+        <v>1266.52</v>
+      </c>
+      <c r="E225" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>37</v>
       </c>
@@ -3567,13 +4469,17 @@
         <v>26</v>
       </c>
       <c r="C226">
-        <v>1046.26</v>
-      </c>
-      <c r="D226" s="3">
+        <f t="shared" si="3"/>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="D226">
+        <v>1046.26</v>
+      </c>
+      <c r="E226" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>37</v>
       </c>
@@ -3581,13 +4487,17 @@
         <v>20</v>
       </c>
       <c r="C227">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D227" s="3">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="D227">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E227" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>37</v>
       </c>
@@ -3595,13 +4505,17 @@
         <v>20</v>
       </c>
       <c r="C228">
-        <v>1266.52</v>
-      </c>
-      <c r="D228" s="3">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="D228">
+        <v>1266.52</v>
+      </c>
+      <c r="E228" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>37</v>
       </c>
@@ -3609,13 +4523,17 @@
         <v>20</v>
       </c>
       <c r="C229">
-        <v>1046.26</v>
-      </c>
-      <c r="D229" s="3">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="D229">
+        <v>1046.26</v>
+      </c>
+      <c r="E229" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>37</v>
       </c>
@@ -3623,13 +4541,17 @@
         <v>24</v>
       </c>
       <c r="C230">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D230" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="D230">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E230" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>37</v>
       </c>
@@ -3637,13 +4559,17 @@
         <v>24</v>
       </c>
       <c r="C231">
-        <v>1266.52</v>
-      </c>
-      <c r="D231" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="D231">
+        <v>1266.52</v>
+      </c>
+      <c r="E231" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>37</v>
       </c>
@@ -3651,13 +4577,17 @@
         <v>24</v>
       </c>
       <c r="C232">
-        <v>1046.26</v>
-      </c>
-      <c r="D232" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="D232">
+        <v>1046.26</v>
+      </c>
+      <c r="E232" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>52</v>
       </c>
@@ -3665,13 +4595,17 @@
         <v>24</v>
       </c>
       <c r="C233">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D233" s="3">
+        <f t="shared" si="3"/>
+        <v>12.48</v>
+      </c>
+      <c r="D233">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E233" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>52</v>
       </c>
@@ -3679,13 +4613,17 @@
         <v>24</v>
       </c>
       <c r="C234">
-        <v>1266.52</v>
-      </c>
-      <c r="D234" s="3">
+        <f t="shared" si="3"/>
+        <v>12.48</v>
+      </c>
+      <c r="D234">
+        <v>1266.52</v>
+      </c>
+      <c r="E234" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>52</v>
       </c>
@@ -3693,13 +4631,17 @@
         <v>24</v>
       </c>
       <c r="C235">
-        <v>1046.26</v>
-      </c>
-      <c r="D235" s="3">
+        <f t="shared" si="3"/>
+        <v>12.48</v>
+      </c>
+      <c r="D235">
+        <v>1046.26</v>
+      </c>
+      <c r="E235" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>52</v>
       </c>
@@ -3707,13 +4649,17 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D236" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="D236">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E236" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>52</v>
       </c>
@@ -3721,13 +4667,17 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>1266.52</v>
-      </c>
-      <c r="D237" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="D237">
+        <v>1266.52</v>
+      </c>
+      <c r="E237" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>52</v>
       </c>
@@ -3735,13 +4685,17 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>1046.26</v>
-      </c>
-      <c r="D238" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="D238">
+        <v>1046.26</v>
+      </c>
+      <c r="E238" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>52</v>
       </c>
@@ -3749,13 +4703,17 @@
         <v>15</v>
       </c>
       <c r="C239">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D239" s="3">
+        <f t="shared" si="3"/>
+        <v>7.8</v>
+      </c>
+      <c r="D239">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E239" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>52</v>
       </c>
@@ -3763,13 +4721,17 @@
         <v>15</v>
       </c>
       <c r="C240">
-        <v>1266.52</v>
-      </c>
-      <c r="D240" s="3">
+        <f t="shared" si="3"/>
+        <v>7.8</v>
+      </c>
+      <c r="D240">
+        <v>1266.52</v>
+      </c>
+      <c r="E240" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>52</v>
       </c>
@@ -3777,13 +4739,17 @@
         <v>15</v>
       </c>
       <c r="C241">
-        <v>1046.26</v>
-      </c>
-      <c r="D241" s="3">
+        <f t="shared" si="3"/>
+        <v>7.8</v>
+      </c>
+      <c r="D241">
+        <v>1046.26</v>
+      </c>
+      <c r="E241" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>52</v>
       </c>
@@ -3791,13 +4757,17 @@
         <v>18</v>
       </c>
       <c r="C242">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D242" s="3">
+        <f t="shared" si="3"/>
+        <v>9.36</v>
+      </c>
+      <c r="D242">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E242" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>52</v>
       </c>
@@ -3805,13 +4775,17 @@
         <v>18</v>
       </c>
       <c r="C243">
-        <v>1266.52</v>
-      </c>
-      <c r="D243" s="3">
+        <f t="shared" si="3"/>
+        <v>9.36</v>
+      </c>
+      <c r="D243">
+        <v>1266.52</v>
+      </c>
+      <c r="E243" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>52</v>
       </c>
@@ -3819,13 +4793,17 @@
         <v>18</v>
       </c>
       <c r="C244">
-        <v>1046.26</v>
-      </c>
-      <c r="D244" s="3">
+        <f t="shared" si="3"/>
+        <v>9.36</v>
+      </c>
+      <c r="D244">
+        <v>1046.26</v>
+      </c>
+      <c r="E244" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>52</v>
       </c>
@@ -3833,13 +4811,17 @@
         <v>22</v>
       </c>
       <c r="C245">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D245" s="3">
+        <f t="shared" si="3"/>
+        <v>11.44</v>
+      </c>
+      <c r="D245">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E245" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>52</v>
       </c>
@@ -3847,13 +4829,17 @@
         <v>22</v>
       </c>
       <c r="C246">
-        <v>1266.52</v>
-      </c>
-      <c r="D246" s="3">
+        <f t="shared" si="3"/>
+        <v>11.44</v>
+      </c>
+      <c r="D246">
+        <v>1266.52</v>
+      </c>
+      <c r="E246" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>52</v>
       </c>
@@ -3861,13 +4847,17 @@
         <v>22</v>
       </c>
       <c r="C247">
-        <v>1046.26</v>
-      </c>
-      <c r="D247" s="3">
+        <f t="shared" si="3"/>
+        <v>11.44</v>
+      </c>
+      <c r="D247">
+        <v>1046.26</v>
+      </c>
+      <c r="E247" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>85</v>
       </c>
@@ -3875,13 +4865,17 @@
         <v>51</v>
       </c>
       <c r="C248">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D248" s="3">
+        <f t="shared" si="3"/>
+        <v>43.35</v>
+      </c>
+      <c r="D248">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E248" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>85</v>
       </c>
@@ -3889,13 +4883,17 @@
         <v>51</v>
       </c>
       <c r="C249">
-        <v>1266.52</v>
-      </c>
-      <c r="D249" s="3">
+        <f t="shared" si="3"/>
+        <v>43.35</v>
+      </c>
+      <c r="D249">
+        <v>1266.52</v>
+      </c>
+      <c r="E249" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>85</v>
       </c>
@@ -3903,13 +4901,17 @@
         <v>51</v>
       </c>
       <c r="C250">
-        <v>1046.26</v>
-      </c>
-      <c r="D250" s="3">
+        <f t="shared" si="3"/>
+        <v>43.35</v>
+      </c>
+      <c r="D250">
+        <v>1046.26</v>
+      </c>
+      <c r="E250" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>85</v>
       </c>
@@ -3917,13 +4919,17 @@
         <v>57</v>
       </c>
       <c r="C251">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D251" s="3">
+        <f t="shared" si="3"/>
+        <v>48.45</v>
+      </c>
+      <c r="D251">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E251" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>85</v>
       </c>
@@ -3931,13 +4937,17 @@
         <v>57</v>
       </c>
       <c r="C252">
-        <v>1266.52</v>
-      </c>
-      <c r="D252" s="3">
+        <f t="shared" si="3"/>
+        <v>48.45</v>
+      </c>
+      <c r="D252">
+        <v>1266.52</v>
+      </c>
+      <c r="E252" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>85</v>
       </c>
@@ -3945,13 +4955,17 @@
         <v>57</v>
       </c>
       <c r="C253">
-        <v>1046.26</v>
-      </c>
-      <c r="D253" s="3">
+        <f t="shared" si="3"/>
+        <v>48.45</v>
+      </c>
+      <c r="D253">
+        <v>1046.26</v>
+      </c>
+      <c r="E253" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>85</v>
       </c>
@@ -3959,13 +4973,17 @@
         <v>63</v>
       </c>
       <c r="C254">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D254" s="3">
+        <f t="shared" si="3"/>
+        <v>53.55</v>
+      </c>
+      <c r="D254">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E254" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>85</v>
       </c>
@@ -3973,13 +4991,17 @@
         <v>63</v>
       </c>
       <c r="C255">
-        <v>1266.52</v>
-      </c>
-      <c r="D255" s="3">
+        <f t="shared" si="3"/>
+        <v>53.55</v>
+      </c>
+      <c r="D255">
+        <v>1266.52</v>
+      </c>
+      <c r="E255" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>85</v>
       </c>
@@ -3987,13 +5009,17 @@
         <v>63</v>
       </c>
       <c r="C256">
-        <v>1046.26</v>
-      </c>
-      <c r="D256" s="3">
+        <f t="shared" si="3"/>
+        <v>53.55</v>
+      </c>
+      <c r="D256">
+        <v>1046.26</v>
+      </c>
+      <c r="E256" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>85</v>
       </c>
@@ -4001,13 +5027,17 @@
         <v>69</v>
       </c>
       <c r="C257">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D257" s="3">
+        <f t="shared" si="3"/>
+        <v>58.65</v>
+      </c>
+      <c r="D257">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E257" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>85</v>
       </c>
@@ -4015,13 +5045,17 @@
         <v>69</v>
       </c>
       <c r="C258">
-        <v>1266.52</v>
-      </c>
-      <c r="D258" s="3">
+        <f t="shared" si="3"/>
+        <v>58.65</v>
+      </c>
+      <c r="D258">
+        <v>1266.52</v>
+      </c>
+      <c r="E258" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>85</v>
       </c>
@@ -4029,13 +5063,17 @@
         <v>75</v>
       </c>
       <c r="C259">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D259" s="3">
+        <f t="shared" ref="C259:C291" si="4">(A259*B259)/100</f>
+        <v>63.75</v>
+      </c>
+      <c r="D259">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E259" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>85</v>
       </c>
@@ -4043,13 +5081,17 @@
         <v>75</v>
       </c>
       <c r="C260">
-        <v>1266.52</v>
-      </c>
-      <c r="D260" s="3">
+        <f t="shared" si="4"/>
+        <v>63.75</v>
+      </c>
+      <c r="D260">
+        <v>1266.52</v>
+      </c>
+      <c r="E260" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>85</v>
       </c>
@@ -4057,13 +5099,17 @@
         <v>75</v>
       </c>
       <c r="C261">
-        <v>1046.26</v>
-      </c>
-      <c r="D261" s="3">
+        <f t="shared" si="4"/>
+        <v>63.75</v>
+      </c>
+      <c r="D261">
+        <v>1046.26</v>
+      </c>
+      <c r="E261" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>120</v>
       </c>
@@ -4071,13 +5117,17 @@
         <v>75</v>
       </c>
       <c r="C262">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D262" s="3">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D262">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E262" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>120</v>
       </c>
@@ -4085,13 +5135,17 @@
         <v>75</v>
       </c>
       <c r="C263">
-        <v>1266.52</v>
-      </c>
-      <c r="D263" s="3">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D263">
+        <v>1266.52</v>
+      </c>
+      <c r="E263" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>120</v>
       </c>
@@ -4099,13 +5153,17 @@
         <v>75</v>
       </c>
       <c r="C264">
-        <v>1046.26</v>
-      </c>
-      <c r="D264" s="3">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D264">
+        <v>1046.26</v>
+      </c>
+      <c r="E264" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>120</v>
       </c>
@@ -4113,13 +5171,17 @@
         <v>65</v>
       </c>
       <c r="C265">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D265" s="3">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D265">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E265" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>120</v>
       </c>
@@ -4127,13 +5189,17 @@
         <v>65</v>
       </c>
       <c r="C266">
-        <v>1266.52</v>
-      </c>
-      <c r="D266" s="3">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D266">
+        <v>1266.52</v>
+      </c>
+      <c r="E266" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>120</v>
       </c>
@@ -4141,13 +5207,17 @@
         <v>65</v>
       </c>
       <c r="C267">
-        <v>1046.26</v>
-      </c>
-      <c r="D267" s="3">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D267">
+        <v>1046.26</v>
+      </c>
+      <c r="E267" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>120</v>
       </c>
@@ -4155,13 +5225,17 @@
         <v>60</v>
       </c>
       <c r="C268">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D268" s="3">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D268">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E268" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>120</v>
       </c>
@@ -4169,13 +5243,17 @@
         <v>60</v>
       </c>
       <c r="C269">
-        <v>1266.52</v>
-      </c>
-      <c r="D269" s="3">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D269">
+        <v>1266.52</v>
+      </c>
+      <c r="E269" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>120</v>
       </c>
@@ -4183,13 +5261,17 @@
         <v>60</v>
       </c>
       <c r="C270">
-        <v>1046.26</v>
-      </c>
-      <c r="D270" s="3">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D270">
+        <v>1046.26</v>
+      </c>
+      <c r="E270" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>120</v>
       </c>
@@ -4197,13 +5279,17 @@
         <v>55</v>
       </c>
       <c r="C271">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D271" s="3">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D271">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E271" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>120</v>
       </c>
@@ -4211,13 +5297,17 @@
         <v>55</v>
       </c>
       <c r="C272">
-        <v>1266.52</v>
-      </c>
-      <c r="D272" s="3">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D272">
+        <v>1266.52</v>
+      </c>
+      <c r="E272" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>120</v>
       </c>
@@ -4225,13 +5315,17 @@
         <v>55</v>
       </c>
       <c r="C273">
-        <v>1046.26</v>
-      </c>
-      <c r="D273" s="3">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D273">
+        <v>1046.26</v>
+      </c>
+      <c r="E273" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>120</v>
       </c>
@@ -4239,13 +5333,17 @@
         <v>50</v>
       </c>
       <c r="C274">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D274" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D274">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E274" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>120</v>
       </c>
@@ -4253,13 +5351,17 @@
         <v>50</v>
       </c>
       <c r="C275">
-        <v>1266.52</v>
-      </c>
-      <c r="D275" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D275">
+        <v>1266.52</v>
+      </c>
+      <c r="E275" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>120</v>
       </c>
@@ -4267,13 +5369,17 @@
         <v>50</v>
       </c>
       <c r="C276">
-        <v>1046.26</v>
-      </c>
-      <c r="D276" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D276">
+        <v>1046.26</v>
+      </c>
+      <c r="E276" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>120</v>
       </c>
@@ -4281,13 +5387,17 @@
         <v>45</v>
       </c>
       <c r="C277">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D277" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D277">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E277" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>120</v>
       </c>
@@ -4295,13 +5405,17 @@
         <v>45</v>
       </c>
       <c r="C278">
-        <v>1266.52</v>
-      </c>
-      <c r="D278" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D278">
+        <v>1266.52</v>
+      </c>
+      <c r="E278" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>120</v>
       </c>
@@ -4309,13 +5423,17 @@
         <v>45</v>
       </c>
       <c r="C279">
-        <v>1046.26</v>
-      </c>
-      <c r="D279" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D279">
+        <v>1046.26</v>
+      </c>
+      <c r="E279" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>120</v>
       </c>
@@ -4323,13 +5441,17 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D280" s="3">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D280">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E280" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>120</v>
       </c>
@@ -4337,13 +5459,17 @@
         <v>10</v>
       </c>
       <c r="C281">
-        <v>1266.52</v>
-      </c>
-      <c r="D281" s="3">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D281">
+        <v>1266.52</v>
+      </c>
+      <c r="E281" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>120</v>
       </c>
@@ -4351,13 +5477,17 @@
         <v>10</v>
       </c>
       <c r="C282">
-        <v>1046.26</v>
-      </c>
-      <c r="D282" s="3">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D282">
+        <v>1046.26</v>
+      </c>
+      <c r="E282" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>120</v>
       </c>
@@ -4365,13 +5495,17 @@
         <v>20</v>
       </c>
       <c r="C283">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D283" s="3">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D283">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E283" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>120</v>
       </c>
@@ -4379,13 +5513,17 @@
         <v>20</v>
       </c>
       <c r="C284">
-        <v>1266.52</v>
-      </c>
-      <c r="D284" s="3">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D284">
+        <v>1266.52</v>
+      </c>
+      <c r="E284" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>120</v>
       </c>
@@ -4393,13 +5531,17 @@
         <v>20</v>
       </c>
       <c r="C285">
-        <v>1046.26</v>
-      </c>
-      <c r="D285" s="3">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D285">
+        <v>1046.26</v>
+      </c>
+      <c r="E285" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>500</v>
       </c>
@@ -4407,13 +5549,17 @@
         <v>20</v>
       </c>
       <c r="C286">
-        <v>1266.52</v>
-      </c>
-      <c r="D286" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D286">
+        <v>1266.52</v>
+      </c>
+      <c r="E286" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>500</v>
       </c>
@@ -4421,13 +5567,17 @@
         <v>20</v>
       </c>
       <c r="C287">
-        <v>1046.26</v>
-      </c>
-      <c r="D287" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D287">
+        <v>1046.26</v>
+      </c>
+      <c r="E287" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>500</v>
       </c>
@@ -4435,13 +5585,17 @@
         <v>25</v>
       </c>
       <c r="C288">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D288" s="3">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="D288">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E288" s="3">
         <v>354</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>500</v>
       </c>
@@ -4449,13 +5603,17 @@
         <v>25</v>
       </c>
       <c r="C289">
-        <v>1046.26</v>
-      </c>
-      <c r="D289" s="3">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="D289">
+        <v>1046.26</v>
+      </c>
+      <c r="E289" s="3">
         <v>315</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>500</v>
       </c>
@@ -4463,13 +5621,17 @@
         <v>35</v>
       </c>
       <c r="C290">
-        <v>1156.3900000000001</v>
-      </c>
-      <c r="D290" s="3">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="D290">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E290" s="3">
         <v>495</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>500</v>
       </c>
@@ -4477,9 +5639,13 @@
         <v>35</v>
       </c>
       <c r="C291">
-        <v>1266.52</v>
-      </c>
-      <c r="D291" s="3">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="D291">
+        <v>1266.52</v>
+      </c>
+      <c r="E291" s="3">
         <v>538</v>
       </c>
     </row>
